--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Ptn-Ptprz1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Ptn-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,72 +519,72 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.55045227321852</v>
+        <v>0.3206776666666667</v>
       </c>
       <c r="H2">
-        <v>5.55045227321852</v>
+        <v>0.962033</v>
       </c>
       <c r="I2">
-        <v>0.5711090744360188</v>
+        <v>0.03001977461414601</v>
       </c>
       <c r="J2">
-        <v>0.5711090744360188</v>
+        <v>0.03001977461414601</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>5.42556261433041</v>
+        <v>0.03995766666666666</v>
       </c>
       <c r="N2">
-        <v>5.42556261433041</v>
+        <v>0.119873</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.005314930928687666</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.005314930928687667</v>
       </c>
       <c r="Q2">
-        <v>30.11432634619964</v>
+        <v>0.01281353131211111</v>
       </c>
       <c r="R2">
-        <v>30.11432634619964</v>
+        <v>0.115321781809</v>
       </c>
       <c r="S2">
-        <v>0.5711090744360188</v>
+        <v>0.0001595530285689575</v>
       </c>
       <c r="T2">
-        <v>0.5711090744360188</v>
+        <v>0.0001595530285689575</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -590,49 +593,483 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.16827313610841</v>
+        <v>0.3206776666666667</v>
       </c>
       <c r="H3">
-        <v>4.16827313610841</v>
+        <v>0.962033</v>
       </c>
       <c r="I3">
-        <v>0.4288909255639813</v>
+        <v>0.03001977461414601</v>
       </c>
       <c r="J3">
-        <v>0.4288909255639813</v>
+        <v>0.03001977461414601</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>5.42556261433041</v>
+        <v>0.03069133333333333</v>
       </c>
       <c r="N3">
-        <v>5.42556261433041</v>
+        <v>0.092074</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.004082378436578614</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.004082378436578615</v>
       </c>
       <c r="Q3">
-        <v>22.61522689358756</v>
+        <v>0.009842025160222223</v>
       </c>
       <c r="R3">
-        <v>22.61522689358756</v>
+        <v>0.088578226442</v>
       </c>
       <c r="S3">
-        <v>0.4288909255639813</v>
+        <v>0.0001225520805557398</v>
       </c>
       <c r="T3">
-        <v>0.4288909255639813</v>
+        <v>0.0001225520805557398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.3206776666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.962033</v>
+      </c>
+      <c r="I4">
+        <v>0.03001977461414601</v>
+      </c>
+      <c r="J4">
+        <v>0.03001977461414601</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>7.447354000000001</v>
+      </c>
+      <c r="N4">
+        <v>22.342062</v>
+      </c>
+      <c r="O4">
+        <v>0.9906026906347337</v>
+      </c>
+      <c r="P4">
+        <v>0.9906026906347338</v>
+      </c>
+      <c r="Q4">
+        <v>2.388200103560667</v>
+      </c>
+      <c r="R4">
+        <v>21.493800932046</v>
+      </c>
+      <c r="S4">
+        <v>0.02973766950502131</v>
+      </c>
+      <c r="T4">
+        <v>0.02973766950502132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>5.752274333333333</v>
+      </c>
+      <c r="H5">
+        <v>17.256823</v>
+      </c>
+      <c r="I5">
+        <v>0.5384908178993973</v>
+      </c>
+      <c r="J5">
+        <v>0.5384908178993975</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.03995766666666666</v>
+      </c>
+      <c r="N5">
+        <v>0.119873</v>
+      </c>
+      <c r="O5">
+        <v>0.005314930928687666</v>
+      </c>
+      <c r="P5">
+        <v>0.005314930928687667</v>
+      </c>
+      <c r="Q5">
+        <v>0.2298474603865555</v>
+      </c>
+      <c r="R5">
+        <v>2.068627143479</v>
+      </c>
+      <c r="S5">
+        <v>0.002862041502867825</v>
+      </c>
+      <c r="T5">
+        <v>0.002862041502867826</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5.752274333333333</v>
+      </c>
+      <c r="H6">
+        <v>17.256823</v>
+      </c>
+      <c r="I6">
+        <v>0.5384908178993973</v>
+      </c>
+      <c r="J6">
+        <v>0.5384908178993975</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.03069133333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.092074</v>
+      </c>
+      <c r="O6">
+        <v>0.004082378436578614</v>
+      </c>
+      <c r="P6">
+        <v>0.004082378436578615</v>
+      </c>
+      <c r="Q6">
+        <v>0.1765449689891111</v>
+      </c>
+      <c r="R6">
+        <v>1.588904720902</v>
+      </c>
+      <c r="S6">
+        <v>0.002198323303288081</v>
+      </c>
+      <c r="T6">
+        <v>0.002198323303288082</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.752274333333333</v>
+      </c>
+      <c r="H7">
+        <v>17.256823</v>
+      </c>
+      <c r="I7">
+        <v>0.5384908178993973</v>
+      </c>
+      <c r="J7">
+        <v>0.5384908178993975</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>7.447354000000001</v>
+      </c>
+      <c r="N7">
+        <v>22.342062</v>
+      </c>
+      <c r="O7">
+        <v>0.9906026906347337</v>
+      </c>
+      <c r="P7">
+        <v>0.9906026906347338</v>
+      </c>
+      <c r="Q7">
+        <v>42.83922326544734</v>
+      </c>
+      <c r="R7">
+        <v>385.553009389026</v>
+      </c>
+      <c r="S7">
+        <v>0.5334304530932414</v>
+      </c>
+      <c r="T7">
+        <v>0.5334304530932417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.609262333333334</v>
+      </c>
+      <c r="H8">
+        <v>13.827787</v>
+      </c>
+      <c r="I8">
+        <v>0.4314894074864565</v>
+      </c>
+      <c r="J8">
+        <v>0.4314894074864565</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.03995766666666666</v>
+      </c>
+      <c r="N8">
+        <v>0.119873</v>
+      </c>
+      <c r="O8">
+        <v>0.005314930928687666</v>
+      </c>
+      <c r="P8">
+        <v>0.005314930928687667</v>
+      </c>
+      <c r="Q8">
+        <v>0.1841753678945555</v>
+      </c>
+      <c r="R8">
+        <v>1.657578311051</v>
+      </c>
+      <c r="S8">
+        <v>0.002293336397250883</v>
+      </c>
+      <c r="T8">
+        <v>0.002293336397250883</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.609262333333334</v>
+      </c>
+      <c r="H9">
+        <v>13.827787</v>
+      </c>
+      <c r="I9">
+        <v>0.4314894074864565</v>
+      </c>
+      <c r="J9">
+        <v>0.4314894074864565</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.03069133333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.092074</v>
+      </c>
+      <c r="O9">
+        <v>0.004082378436578614</v>
+      </c>
+      <c r="P9">
+        <v>0.004082378436578615</v>
+      </c>
+      <c r="Q9">
+        <v>0.1414644066931111</v>
+      </c>
+      <c r="R9">
+        <v>1.273179660238</v>
+      </c>
+      <c r="S9">
+        <v>0.001761503052734793</v>
+      </c>
+      <c r="T9">
+        <v>0.001761503052734793</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.609262333333334</v>
+      </c>
+      <c r="H10">
+        <v>13.827787</v>
+      </c>
+      <c r="I10">
+        <v>0.4314894074864565</v>
+      </c>
+      <c r="J10">
+        <v>0.4314894074864565</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.447354000000001</v>
+      </c>
+      <c r="N10">
+        <v>22.342062</v>
+      </c>
+      <c r="O10">
+        <v>0.9906026906347337</v>
+      </c>
+      <c r="P10">
+        <v>0.9906026906347338</v>
+      </c>
+      <c r="Q10">
+        <v>34.32680827519934</v>
+      </c>
+      <c r="R10">
+        <v>308.941274476794</v>
+      </c>
+      <c r="S10">
+        <v>0.4274345680364708</v>
+      </c>
+      <c r="T10">
+        <v>0.4274345680364709</v>
       </c>
     </row>
   </sheetData>
